--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:04:27+00:00</t>
+    <t>2024-04-30T12:40:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T12:40:14+00:00</t>
+    <t>2024-04-30T13:03:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:03:28+00:00</t>
+    <t>2024-04-30T13:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T13:09:54+00:00</t>
+    <t>2024-05-21T14:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T14:49:50+00:00</t>
+    <t>2024-05-21T15:06:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-21T15:06:05+00:00</t>
+    <t>2024-05-22T07:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-22T07:46:44+00:00</t>
+    <t>2024-05-22T08:18:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:26:46+00:00</t>
+    <t>2024-05-23T14:57:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T14:57:19+00:00</t>
+    <t>2024-05-27T07:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="443">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T07:09:09+00:00</t>
+    <t>2024-05-27T09:43:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -470,7 +470,8 @@
 </t>
   </si>
   <si>
-    <t>Extension créée dans le cadre d'OncoFAIR</t>
+    <t>Extension created as part of OncoFAIR containing the batch and serial number of the administered component/administration element. 
+Extension créée dans le cadre d'OncoFAIR contenant le numéro de lot et de série du composant administré/élément d'administration.</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:oncofair-ma-element-expirationdate</t>
@@ -483,6 +484,13 @@
 </t>
   </si>
   <si>
+    <t>Expiry date of administered component</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the expiry date of the component administered. 
+Extension créée dans le cadre d'OncoFAIR contenant la date de péremption du composant administré.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:oncofair-ma-component-origin</t>
   </si>
   <si>
@@ -493,6 +501,13 @@
 </t>
   </si>
   <si>
+    <t>Specifies the origin of the component administered</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the origin of the administered component. 
+Extension créée dans le cadre d'OncoFAIR contenant la provenance du composant administré.</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:oncofair-ma-component-administration-status</t>
   </si>
   <si>
@@ -501,6 +516,13 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-ma-component-administration-status}
 </t>
+  </si>
+  <si>
+    <t>Specifies whether the component administered was actually administered to the patient or not.</t>
+  </si>
+  <si>
+    <t>Extension created as part of OncoFAIR containing the administration status of the administered component. 
+Extension créée dans le cadre d'OncoFAIR contenant le statut d'administration du composant administré.</t>
   </si>
   <si>
     <t>MedicationAdministration.modifierExtension</t>
@@ -2946,10 +2968,10 @@
         <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3032,13 +3054,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3060,13 +3082,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3149,13 +3171,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3177,13 +3199,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3266,14 +3288,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3295,16 +3317,16 @@
         <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3353,7 +3375,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3385,10 +3407,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3411,16 +3433,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3470,7 +3492,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3488,13 +3510,13 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3502,10 +3524,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3528,13 +3550,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3585,7 +3607,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3609,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3617,10 +3639,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3643,16 +3665,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3702,7 +3724,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3717,16 +3739,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3734,10 +3756,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3763,13 +3785,13 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3798,10 +3820,10 @@
         <v>112</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3819,7 +3841,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3837,24 +3859,24 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3877,13 +3899,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3910,31 +3932,31 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3952,24 +3974,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3992,13 +4014,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4025,13 +4047,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4049,7 +4071,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4073,7 +4095,7 @@
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4081,10 +4103,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4107,16 +4129,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4142,31 +4164,31 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Z21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4181,27 +4203,27 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4224,13 +4246,13 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4281,7 +4303,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>88</v>
@@ -4299,24 +4321,24 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4339,13 +4361,13 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4396,7 +4418,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4414,24 +4436,24 @@
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4454,13 +4476,13 @@
         <v>76</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4511,7 +4533,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4532,10 +4554,10 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4543,10 +4565,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4569,13 +4591,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4626,7 +4648,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>88</v>
@@ -4644,24 +4666,24 @@
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4684,13 +4706,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4741,7 +4763,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4762,10 +4784,10 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -4773,10 +4795,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4799,13 +4821,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4856,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4888,10 +4910,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4914,13 +4936,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4947,11 +4969,11 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y28" s="2"/>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4969,7 +4991,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5001,10 +5023,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5027,13 +5049,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5084,7 +5106,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5102,24 +5124,24 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5142,13 +5164,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5199,7 +5221,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5208,7 +5230,7 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>76</v>
@@ -5223,7 +5245,7 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5231,14 +5253,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5260,13 +5282,13 @@
         <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5316,7 +5338,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5340,7 +5362,7 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>76</v>
@@ -5348,14 +5370,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5377,16 +5399,16 @@
         <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5435,7 +5457,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5467,10 +5489,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5493,13 +5515,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5526,13 +5548,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5550,7 +5572,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5568,13 +5590,13 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>76</v>
@@ -5582,10 +5604,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5608,13 +5630,13 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5665,7 +5687,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>88</v>
@@ -5683,13 +5705,13 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5697,10 +5719,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5723,13 +5745,13 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5756,13 +5778,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5780,7 +5802,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5798,24 +5820,24 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5838,16 +5860,16 @@
         <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5897,7 +5919,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5915,24 +5937,24 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5955,13 +5977,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6012,7 +6034,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6036,18 +6058,18 @@
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6070,13 +6092,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6115,7 +6137,7 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
@@ -6125,7 +6147,7 @@
         <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6143,13 +6165,13 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6157,13 +6179,13 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>76</v>
@@ -6185,13 +6207,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6242,7 +6264,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6257,16 +6279,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6274,10 +6296,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6303,10 +6325,10 @@
         <v>90</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6318,7 +6340,7 @@
         <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>76</v>
@@ -6357,7 +6379,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6366,7 +6388,7 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>76</v>
@@ -6381,7 +6403,7 @@
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>76</v>
@@ -6389,14 +6411,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6418,13 +6440,13 @@
         <v>135</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6465,7 +6487,7 @@
         <v>138</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
@@ -6474,7 +6496,7 @@
         <v>139</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6498,7 +6520,7 @@
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6506,10 +6528,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6532,16 +6554,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6591,7 +6613,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6615,7 +6637,7 @@
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>133</v>
@@ -6623,10 +6645,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6649,13 +6671,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6706,7 +6728,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6730,7 +6752,7 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>133</v>
@@ -6738,10 +6760,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6764,13 +6786,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6821,7 +6843,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -6845,7 +6867,7 @@
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>133</v>
@@ -6853,13 +6875,13 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
@@ -6881,13 +6903,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6938,7 +6960,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6953,16 +6975,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -6970,10 +6992,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6999,10 +7021,10 @@
         <v>90</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7014,7 +7036,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7053,7 +7075,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7062,7 +7084,7 @@
         <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>76</v>
@@ -7077,7 +7099,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7085,14 +7107,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7114,13 +7136,13 @@
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7161,7 +7183,7 @@
         <v>138</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
@@ -7170,7 +7192,7 @@
         <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7194,7 +7216,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7202,10 +7224,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7228,16 +7250,16 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7287,7 +7309,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7311,7 +7333,7 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>133</v>
@@ -7319,10 +7341,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7345,13 +7367,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7402,7 +7424,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7426,7 +7448,7 @@
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>133</v>
@@ -7434,10 +7456,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7460,13 +7482,13 @@
         <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7517,7 +7539,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>88</v>
@@ -7541,7 +7563,7 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>133</v>
@@ -7549,10 +7571,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7575,13 +7597,13 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7632,7 +7654,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7644,7 +7666,7 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7656,7 +7678,7 @@
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>76</v>
@@ -7664,10 +7686,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7690,13 +7712,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7747,7 +7769,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7756,7 +7778,7 @@
         <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>76</v>
@@ -7771,7 +7793,7 @@
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>76</v>
@@ -7779,14 +7801,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7808,13 +7830,13 @@
         <v>135</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7864,7 +7886,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7888,7 +7910,7 @@
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -7896,14 +7918,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7925,16 +7947,16 @@
         <v>135</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7983,7 +8005,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8015,10 +8037,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8041,13 +8063,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8098,7 +8120,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8107,7 +8129,7 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>100</v>
@@ -8122,7 +8144,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8130,10 +8152,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8156,16 +8178,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8191,13 +8213,13 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
@@ -8215,7 +8237,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8239,18 +8261,18 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8273,13 +8295,13 @@
         <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8306,13 +8328,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8330,7 +8352,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8354,18 +8376,18 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8388,16 +8410,16 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8423,13 +8445,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8447,7 +8469,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8471,18 +8493,18 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8505,16 +8527,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8564,7 +8586,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8573,13 +8595,13 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8588,18 +8610,18 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8622,16 +8644,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8669,17 +8691,17 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8688,7 +8710,7 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
@@ -8703,21 +8725,21 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>76</v>
@@ -8739,16 +8761,16 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8798,7 +8820,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8810,10 +8832,10 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8822,18 +8844,18 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8856,16 +8878,16 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8915,7 +8937,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8939,7 +8961,7 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>76</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T09:43:00+00:00</t>
+    <t>2024-05-27T14:54:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This object corresponds to a product that belongs to the nomenclature of medicines used in the hospital.</t>
+    <t>This object corresponds to a product that belongs to the nomenclature of medicines used in the hospital. 
+Cet objet correspond à un produit qui appartient à la nomenclature de médicaments utilisée dans l’hôpital.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -269,7 +270,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>COMPOSANT ADMINISTRE</t>
+    <t>ComposantAdministre</t>
   </si>
   <si>
     <t>Event</t>
@@ -605,7 +606,7 @@
     <t>MedicationDispense will be used to indicate waste.</t>
   </si>
   <si>
-    <t>ELEMENT ADMINISTRATION</t>
+    <t>ElementAdministration</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -715,7 +716,7 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t>COMPOSANT</t>
+    <t>Composant</t>
   </si>
   <si>
     <t>Event.code</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2303" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="514">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -731,6 +731,258 @@
     <t>RXA-5 Administered Code</t>
   </si>
   <si>
+    <t>MedicationAdministration.medication.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept</t>
+  </si>
+  <si>
+    <t>Reference to a concept (by class)</t>
+  </si>
+  <si>
+    <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
+  </si>
+  <si>
+    <t>CodeableReference.concept</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.id</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cod-1
+</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.concept.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
@@ -844,10 +1096,6 @@
     <t>MedicationAdministration.isSubPotent</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
     <t>Full dose was not administered</t>
   </si>
   <si>
@@ -894,36 +1142,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1100,9 +1319,6 @@
   </si>
   <si>
     <t>MedicationAdministration.note.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>MedicationAdministration.note:comments.author[x]</t>
@@ -1715,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO62"/>
+  <dimension ref="A1:AO77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1725,7 +1941,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="62.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.3671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -4232,7 +4448,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>88</v>
@@ -4244,16 +4460,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4304,53 +4520,53 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AN22" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AO22" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>76</v>
@@ -4362,15 +4578,17 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>236</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -4407,54 +4625,54 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>242</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4465,7 +4683,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -4474,16 +4692,16 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4534,13 +4752,13 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
@@ -4555,10 +4773,10 @@
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>76</v>
@@ -4566,10 +4784,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4577,7 +4795,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>88</v>
@@ -4589,16 +4807,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>249</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4649,53 +4867,53 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>255</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4704,18 +4922,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>257</v>
+        <v>135</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4752,31 +4972,31 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
@@ -4785,10 +5005,10 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>76</v>
@@ -4796,10 +5016,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4810,7 +5030,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4819,19 +5039,23 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4879,13 +5103,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -4903,18 +5127,18 @@
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4925,7 +5149,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -4937,13 +5161,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>268</v>
+        <v>229</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4970,11 +5194,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y28" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z28" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4992,19 +5218,19 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5016,7 +5242,7 @@
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5024,14 +5250,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5047,18 +5273,20 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>135</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5095,19 +5323,19 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -5119,30 +5347,30 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>274</v>
+        <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5162,19 +5390,23 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5222,7 +5454,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5231,10 +5463,10 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5246,29 +5478,29 @@
         <v>76</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>284</v>
+        <v>261</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -5277,19 +5509,19 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>165</v>
+        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5339,19 +5571,19 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>76</v>
@@ -5363,53 +5595,51 @@
         <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>76</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>166</v>
+        <v>274</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5419,7 +5649,7 @@
         <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>76</v>
@@ -5458,19 +5688,19 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>76</v>
@@ -5482,18 +5712,18 @@
         <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>133</v>
+        <v>278</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>76</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5513,19 +5743,21 @@
         <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>283</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5549,13 +5781,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>298</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5573,7 +5805,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5582,7 +5814,7 @@
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>76</v>
+        <v>277</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
@@ -5591,24 +5823,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5616,7 +5848,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5631,16 +5863,20 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5688,10 +5924,10 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5706,24 +5942,24 @@
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5734,7 +5970,7 @@
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5743,19 +5979,23 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5779,13 +6019,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>311</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>312</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5803,13 +6043,13 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
@@ -5821,24 +6061,24 @@
         <v>76</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>315</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5858,20 +6098,18 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>320</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5920,7 +6158,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5938,24 +6176,24 @@
         <v>76</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>322</v>
+        <v>133</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5963,10 +6201,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -5975,16 +6213,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6035,13 +6273,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6053,24 +6291,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>314</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6081,10 +6319,10 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>76</v>
@@ -6093,13 +6331,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6138,23 +6376,25 @@
         <v>76</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -6166,28 +6406,26 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>338</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>76</v>
       </c>
@@ -6196,7 +6434,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -6208,13 +6446,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6265,7 +6503,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6280,16 +6518,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6297,10 +6535,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6320,16 +6558,16 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>90</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6341,7 +6579,7 @@
         <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>76</v>
@@ -6380,53 +6618,53 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>284</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6435,20 +6673,18 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>135</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>286</v>
+        <v>340</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -6485,31 +6721,31 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>76</v>
@@ -6518,10 +6754,10 @@
         <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>284</v>
+        <v>343</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6529,10 +6765,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6552,20 +6788,18 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>348</v>
+        <v>288</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>76</v>
@@ -6614,7 +6848,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6638,18 +6872,18 @@
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6660,7 +6894,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6669,16 +6903,16 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6705,13 +6939,11 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6729,13 +6961,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6753,18 +6985,18 @@
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6772,10 +7004,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -6787,13 +7019,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6844,13 +7076,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -6862,28 +7094,26 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>133</v>
+        <v>358</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>368</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
@@ -6904,13 +7134,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>264</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>228</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6961,31 +7191,31 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -6993,21 +7223,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>342</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -7019,15 +7249,17 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7037,7 +7269,7 @@
         <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>368</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
         <v>76</v>
@@ -7076,19 +7308,19 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
@@ -7100,7 +7332,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>284</v>
+        <v>232</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7108,14 +7340,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>162</v>
+        <v>362</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7128,24 +7360,26 @@
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>286</v>
+        <v>363</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>287</v>
+        <v>364</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="O47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7181,19 +7415,19 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>288</v>
+        <v>365</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7217,7 +7451,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7225,10 +7459,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7248,20 +7482,18 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>348</v>
+        <v>200</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -7286,13 +7518,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7310,7 +7542,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7328,24 +7560,24 @@
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7353,7 +7585,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -7368,13 +7600,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>257</v>
+        <v>374</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7425,10 +7657,10 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>88</v>
@@ -7443,24 +7675,24 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>377</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7468,10 +7700,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7480,16 +7712,16 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7516,13 +7748,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>383</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>384</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -7540,13 +7772,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7558,24 +7790,24 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7583,13 +7815,13 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>76</v>
@@ -7598,15 +7830,17 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>271</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7655,7 +7889,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7667,30 +7901,30 @@
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>393</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>76</v>
+        <v>395</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7701,7 +7935,7 @@
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7713,13 +7947,13 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>279</v>
+        <v>397</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>280</v>
+        <v>398</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7770,19 +8004,19 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>282</v>
+        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7794,22 +8028,22 @@
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>284</v>
+        <v>400</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7819,7 +8053,7 @@
         <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
@@ -7828,17 +8062,15 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>286</v>
+        <v>404</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7875,19 +8107,17 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>288</v>
+        <v>402</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7899,19 +8129,19 @@
         <v>76</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>284</v>
+        <v>408</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -7919,46 +8149,44 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D54" t="s" s="2">
-        <v>290</v>
+        <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>135</v>
+        <v>403</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>291</v>
+        <v>411</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -8006,7 +8234,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>293</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8018,19 +8246,19 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>133</v>
+        <v>408</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8038,10 +8266,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8049,7 +8277,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>88</v>
@@ -8064,13 +8292,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>385</v>
+        <v>228</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>386</v>
+        <v>229</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8082,7 +8310,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8121,7 +8349,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>384</v>
+        <v>230</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8130,10 +8358,10 @@
         <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>387</v>
+        <v>231</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8145,7 +8373,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>388</v>
+        <v>232</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8153,21 +8381,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8179,16 +8407,16 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>390</v>
+        <v>234</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>391</v>
+        <v>235</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>392</v>
+        <v>165</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8214,43 +8442,43 @@
         <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>394</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>389</v>
+        <v>237</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -8262,18 +8490,18 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>395</v>
+        <v>232</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>396</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8293,18 +8521,20 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>200</v>
+        <v>419</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8329,13 +8559,13 @@
         <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>76</v>
@@ -8353,7 +8583,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8377,18 +8607,18 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>403</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>425</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8408,20 +8638,18 @@
         <v>76</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>200</v>
+        <v>339</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8446,13 +8674,13 @@
         <v>76</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>408</v>
+        <v>76</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>409</v>
+        <v>76</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>76</v>
@@ -8470,7 +8698,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8494,18 +8722,18 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>411</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8525,20 +8753,18 @@
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>76</v>
@@ -8587,22 +8813,22 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>76</v>
@@ -8611,26 +8837,28 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>419</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -8645,17 +8873,15 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8692,56 +8918,56 @@
         <v>76</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>387</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>441</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>427</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>442</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>429</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>76</v>
       </c>
@@ -8753,7 +8979,7 @@
         <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>76</v>
@@ -8762,17 +8988,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>413</v>
+        <v>90</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>430</v>
+        <v>228</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8782,7 +9006,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -8821,7 +9045,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8830,13 +9054,13 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>433</v>
+        <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>434</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>76</v>
@@ -8845,22 +9069,22 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>435</v>
+        <v>232</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>436</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8879,16 +9103,16 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>439</v>
+        <v>234</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>440</v>
+        <v>235</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>441</v>
+        <v>165</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8926,19 +9150,19 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8950,26 +9174,1771 @@
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AK62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO62" t="s" s="2">
+      <c r="AK63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AC75" s="2"/>
+      <c r="AD75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AO77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO62">
+  <autoFilter ref="A1:AO77">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8979,7 +10948,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI61">
+  <conditionalFormatting sqref="A2:AI76">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T15:21:14+00:00</t>
+    <t>2024-06-11T13:09:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -802,6 +802,11 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;code value="component"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -811,289 +816,165 @@
     <t>C*E.1-8, C*E.10-22</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication.concept.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should be an absolute reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.version</t>
+    <t>MedicationAdministration.medication.concept.text</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cod-1
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding.userSelected</t>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>PID-3 Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter administered as part of</t>
+  </si>
+  <si>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>PV1-19 Visit Number</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional information to support administration</t>
+  </si>
+  <si>
+    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.isSubPotent</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
 </t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Reference to a resource (by instance)</t>
-  </si>
-  <si>
-    <t>A reference to a resource the provides exact details about the information being referenced.</t>
-  </si>
-  <si>
-    <t>CodeableReference.reference</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject[x]</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>PID-3 Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>PV1-19 Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional information to support administration</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the MedicationAdministration was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.isSubPotent</t>
   </si>
   <si>
     <t>Full dose was not administered</t>
@@ -1931,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO77"/>
+  <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1941,7 +1822,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="62.46484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.77734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.3671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -5064,7 +4945,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -5103,7 +4984,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5127,18 +5008,18 @@
         <v>76</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5158,19 +5039,23 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5218,7 +5103,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5227,10 +5112,10 @@
         <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>76</v>
@@ -5242,29 +5127,29 @@
         <v>76</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>76</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>76</v>
@@ -5273,20 +5158,18 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>76</v>
@@ -5323,31 +5206,31 @@
         <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -5359,7 +5242,7 @@
         <v>76</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>76</v>
@@ -5367,10 +5250,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5378,7 +5261,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5393,20 +5276,16 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -5454,10 +5333,10 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -5472,24 +5351,24 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5509,20 +5388,18 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5571,7 +5448,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5589,24 +5466,24 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5617,7 +5494,7 @@
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -5626,21 +5503,19 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>285</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>274</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
       </c>
@@ -5649,7 +5524,7 @@
         <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>76</v>
@@ -5688,16 +5563,16 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
@@ -5709,21 +5584,21 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>279</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5731,7 +5606,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>88</v>
@@ -5746,18 +5621,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>283</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>76</v>
       </c>
@@ -5805,16 +5678,16 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>277</v>
+        <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>100</v>
@@ -5823,24 +5696,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>293</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5863,20 +5736,16 @@
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5924,7 +5793,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5945,21 +5814,21 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>295</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5979,23 +5848,19 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>300</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -6043,7 +5908,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6067,18 +5932,18 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>303</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6089,7 +5954,7 @@
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>76</v>
@@ -6098,16 +5963,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>305</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6134,13 +5999,11 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -6158,13 +6021,13 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>76</v>
@@ -6182,7 +6045,7 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>76</v>
@@ -6190,10 +6053,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6201,10 +6064,10 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6216,13 +6079,13 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6273,13 +6136,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6291,24 +6154,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6331,13 +6194,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>229</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6388,7 +6251,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6397,37 +6260,37 @@
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>323</v>
+        <v>232</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6446,15 +6309,17 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>326</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6503,7 +6368,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>325</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6515,7 +6380,7 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6524,10 +6389,10 @@
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>329</v>
+        <v>232</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>76</v>
@@ -6535,42 +6400,46 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>324</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6618,42 +6487,42 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>336</v>
+        <v>133</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>337</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6673,16 +6542,16 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6709,13 +6578,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>329</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6733,7 +6602,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6751,13 +6620,13 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>76</v>
@@ -6765,10 +6634,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6776,7 +6645,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -6788,16 +6657,16 @@
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6848,10 +6717,10 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -6866,13 +6735,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6880,10 +6749,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6906,13 +6775,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6941,9 +6810,11 @@
       <c r="X43" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Y43" s="2"/>
+      <c r="Y43" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="Z43" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6961,7 +6832,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6979,24 +6850,24 @@
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7007,7 +6878,7 @@
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>76</v>
@@ -7016,18 +6887,20 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -7076,13 +6949,13 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>76</v>
@@ -7094,24 +6967,24 @@
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>358</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7122,7 +6995,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>76</v>
@@ -7134,13 +7007,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>264</v>
+        <v>357</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7191,19 +7064,19 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>230</v>
+        <v>356</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -7215,22 +7088,22 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>232</v>
+        <v>360</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7240,7 +7113,7 @@
         <v>78</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>76</v>
@@ -7249,17 +7122,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>234</v>
+        <v>364</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7296,19 +7167,17 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>237</v>
+        <v>362</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7320,19 +7189,19 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>76</v>
@@ -7340,46 +7209,44 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>370</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>135</v>
+        <v>363</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7427,7 +7294,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7439,19 +7306,19 @@
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>372</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>367</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>76</v>
@@ -7459,10 +7326,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7470,7 +7337,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -7485,13 +7352,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>229</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7503,7 +7370,7 @@
         <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>370</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>76</v>
@@ -7518,13 +7385,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -7542,7 +7409,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7551,22 +7418,22 @@
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>371</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>372</v>
+        <v>232</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>76</v>
@@ -7574,21 +7441,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7597,18 +7464,20 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>375</v>
+        <v>234</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7645,43 +7514,43 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>373</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>377</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>378</v>
+        <v>232</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7689,10 +7558,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7703,7 +7572,7 @@
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -7712,18 +7581,20 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7748,37 +7619,37 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF50" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -7790,24 +7661,24 @@
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>385</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>387</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7827,20 +7698,18 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7889,7 +7758,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7907,24 +7776,24 @@
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>393</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>395</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7932,10 +7801,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>76</v>
@@ -7944,16 +7813,16 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8007,10 +7876,10 @@
         <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>76</v>
@@ -8028,20 +7897,22 @@
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>401</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>362</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -8050,10 +7921,10 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>76</v>
@@ -8062,13 +7933,13 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8107,17 +7978,19 @@
         <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8132,16 +8005,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>76</v>
@@ -8149,20 +8022,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>88</v>
@@ -8177,13 +8048,13 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>403</v>
+        <v>90</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>411</v>
+        <v>228</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8195,7 +8066,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>399</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8234,31 +8105,31 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>412</v>
+        <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>232</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>76</v>
@@ -8266,21 +8137,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>414</v>
+        <v>376</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -8292,15 +8163,17 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8310,7 +8183,7 @@
         <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>410</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>76</v>
@@ -8337,31 +8210,31 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8381,21 +8254,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>416</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>76</v>
@@ -8404,19 +8277,19 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>234</v>
+        <v>380</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>235</v>
+        <v>381</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>165</v>
+        <v>382</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8454,31 +8327,31 @@
         <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>237</v>
+        <v>383</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -8490,18 +8363,18 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8524,17 +8397,15 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>419</v>
+        <v>298</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8583,7 +8454,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8607,7 +8478,7 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>133</v>
@@ -8615,10 +8486,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8626,7 +8497,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -8641,13 +8512,13 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8698,10 +8569,10 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -8722,7 +8593,7 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>133</v>
@@ -8730,10 +8601,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8747,22 +8618,22 @@
         <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>312</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8813,10 +8684,10 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>436</v>
+        <v>407</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
@@ -8825,7 +8696,7 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8837,22 +8708,20 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>438</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="C60" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
         <v>76</v>
       </c>
@@ -8873,13 +8742,13 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>255</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>440</v>
+        <v>228</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8930,31 +8799,31 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>402</v>
+        <v>230</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>441</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>407</v>
+        <v>76</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>408</v>
+        <v>232</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>76</v>
@@ -8962,21 +8831,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8988,15 +8857,17 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>235</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -9006,7 +8877,7 @@
         <v>76</v>
       </c>
       <c r="S61" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="T61" t="s" s="2">
         <v>76</v>
@@ -9045,19 +8916,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -9077,14 +8948,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>443</v>
+        <v>414</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9097,24 +8968,26 @@
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>135</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>235</v>
+        <v>324</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="O62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -9150,19 +9023,19 @@
         <v>76</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9186,7 +9059,7 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>76</v>
@@ -9194,10 +9067,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9217,20 +9090,18 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>419</v>
+        <v>255</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>422</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9279,7 +9150,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9288,7 +9159,7 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
@@ -9303,18 +9174,18 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9334,18 +9205,20 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -9370,13 +9243,13 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>76</v>
+        <v>424</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>76</v>
+        <v>425</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
@@ -9394,7 +9267,7 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9418,18 +9291,18 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>133</v>
+        <v>427</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9437,7 +9310,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -9449,16 +9322,16 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>200</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9485,13 +9358,13 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>76</v>
+        <v>431</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>76</v>
@@ -9509,10 +9382,10 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>88</v>
@@ -9533,18 +9406,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>133</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9552,13 +9425,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>76</v>
@@ -9567,15 +9440,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>352</v>
+        <v>200</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -9600,13 +9475,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>76</v>
+        <v>439</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>76</v>
+        <v>440</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9624,7 +9499,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9636,7 +9511,7 @@
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -9648,18 +9523,18 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>76</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9667,7 +9542,7 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>88</v>
@@ -9682,15 +9557,17 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>444</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>447</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -9739,7 +9616,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9748,13 +9625,13 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>231</v>
+        <v>418</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>448</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>76</v>
@@ -9763,29 +9640,29 @@
         <v>76</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>232</v>
+        <v>449</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>76</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>76</v>
@@ -9797,16 +9674,16 @@
         <v>76</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>234</v>
+        <v>452</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>235</v>
+        <v>453</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>165</v>
+        <v>454</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9844,31 +9721,29 @@
         <v>76</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>76</v>
+        <v>456</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>237</v>
+        <v>451</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>76</v>
+        <v>418</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>76</v>
@@ -9880,54 +9755,54 @@
         <v>76</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>76</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>135</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>363</v>
+        <v>461</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>364</v>
+        <v>462</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>76</v>
       </c>
@@ -9975,22 +9850,22 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>141</v>
+        <v>464</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>465</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -9999,18 +9874,18 @@
         <v>76</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>133</v>
+        <v>466</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>76</v>
+        <v>467</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10021,7 +9896,7 @@
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>76</v>
@@ -10033,15 +9908,17 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>264</v>
+        <v>469</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>471</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>76</v>
@@ -10090,16 +9967,16 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>458</v>
+        <v>76</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>100</v>
@@ -10114,831 +9991,14 @@
         <v>76</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" hidden="true">
-      <c r="A71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O71" s="2"/>
-      <c r="P71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="72" hidden="true">
-      <c r="A72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="74" hidden="true">
-      <c r="A74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AC75" s="2"/>
-      <c r="AD75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="76" hidden="true">
-      <c r="A76" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="D76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O76" s="2"/>
-      <c r="P76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AO77" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO77">
+  <autoFilter ref="A1:AO70">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10948,7 +10008,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI76">
+  <conditionalFormatting sqref="A2:AI69">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T09:45:22+00:00</t>
+    <t>2024-06-17T08:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -710,10 +710,7 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.</t>
   </si>
   <si>
-    <t>Codes identifying substance or product that can be administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/concept-medication-oncofair-valueset</t>
   </si>
   <si>
     <t>Composant</t>
@@ -774,253 +771,197 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="component"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>CodeableReference.concept</t>
   </si>
   <si>
-    <t>MedicationAdministration.medication.concept.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>MedicationAdministration.medication.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;code value="component"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.concept.text</t>
+    <t>Reference to a resource (by instance)</t>
+  </si>
+  <si>
+    <t>A reference to a resource the provides exact details about the information being referenced.</t>
+  </si>
+  <si>
+    <t>CodeableReference.reference</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|Group)
+</t>
+  </si>
+  <si>
+    <t>Who received medication</t>
+  </si>
+  <si>
+    <t>The person or animal or group receiving the medication.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>FiveWs.subject[x]</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
+  </si>
+  <si>
+    <t>PID-3 Patient ID List</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter)
+</t>
+  </si>
+  <si>
+    <t>Encounter administered as part of</t>
+  </si>
+  <si>
+    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
+  </si>
+  <si>
+    <t>Event.encounter</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
+  </si>
+  <si>
+    <t>PV1-19 Visit Number</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.supportingInformation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Resource)
+</t>
+  </si>
+  <si>
+    <t>Additional information to support administration</t>
+  </si>
+  <si>
+    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.occurence[x]</t>
+  </si>
+  <si>
+    <t>dateTime
+PeriodTiming</t>
+  </si>
+  <si>
+    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
+  </si>
+  <si>
+    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
+  </si>
+  <si>
+    <t>Event.occurrence[x]</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>.effectiveTime</t>
+  </si>
+  <si>
+    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.recorded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the MedicationAdministration was first captured in the subject's record</t>
+  </si>
+  <si>
+    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].time</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.isSubPotent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Full dose was not administered</t>
+  </si>
+  <si>
+    <t>An indication that the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.subPotentReason</t>
+  </si>
+  <si>
+    <t>Reason full dose was not administered</t>
+  </si>
+  <si>
+    <t>The reason or reasons why the full dose was not administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Who or what performed the medication administration and what type of performance they did</t>
+  </si>
+  <si>
+    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
+  </si>
+  <si>
+    <t>Event.performer</t>
+  </si>
+  <si>
+    <t>FiveWs.actor</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=PRF]</t>
+  </si>
+  <si>
+    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
-</t>
-  </si>
-  <si>
-    <t>Reference to a resource (by instance)</t>
-  </si>
-  <si>
-    <t>A reference to a resource the provides exact details about the information being referenced.</t>
-  </si>
-  <si>
-    <t>CodeableReference.reference</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
-</t>
-  </si>
-  <si>
-    <t>Who received medication</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>FiveWs.subject[x]</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].role[classCode=PAT]</t>
-  </si>
-  <si>
-    <t>PID-3 Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter)
-</t>
-  </si>
-  <si>
-    <t>Encounter administered as part of</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.</t>
-  </si>
-  <si>
-    <t>Event.encounter</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>PV1-19 Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
-</t>
-  </si>
-  <si>
-    <t>Additional information to support administration</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.  This attribute can be used to provide documentation of specific characteristics of the patient present at the time of administration.  For example, if the dose says "give "x" if the heartrate exceeds "y"", then the heart rate can be included using this attribute.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.occurence[x]</t>
-  </si>
-  <si>
-    <t>dateTime
-PeriodTiming</t>
-  </si>
-  <si>
-    <t>Specific date/time or interval of time during which the administration took place (or did not take place)</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.</t>
-  </si>
-  <si>
-    <t>Event.occurrence[x]</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>.effectiveTime</t>
-  </si>
-  <si>
-    <t>RXA-3 Date/Time Start of Administration / RXA-4 Date/Time End of Administration</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.recorded</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the MedicationAdministration was first captured in the subject's record</t>
-  </si>
-  <si>
-    <t>The date the occurrence of the  MedicationAdministration was first captured in the record - potentially significantly after the occurrence of the event.</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].time</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.isSubPotent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Full dose was not administered</t>
-  </si>
-  <si>
-    <t>An indication that the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.subPotentReason</t>
-  </si>
-  <si>
-    <t>Reason full dose was not administered</t>
-  </si>
-  <si>
-    <t>The reason or reasons why the full dose was not administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-subpotent-reason</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Who or what performed the medication administration and what type of performance they did</t>
-  </si>
-  <si>
-    <t>The performer of the medication treatment.  For devices this is the device that performed the administration of the medication.  An IV Pump would be an example of a device that is performing the administration. Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
-  </si>
-  <si>
-    <t>Event.performer</t>
-  </si>
-  <si>
-    <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=PRF]</t>
-  </si>
-  <si>
-    <t>RXA-10 Administering Provider / PRT-5 Participation Person: PRT-4 Participation='AP' (RXA-10 is deprecated)</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.extension</t>
@@ -1812,7 +1753,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO70"/>
+  <dimension ref="A1:AO66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1822,7 +1763,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="77.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="52.77734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="43.3671875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1846,7 +1787,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.98828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4262,13 +4203,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4301,27 +4240,27 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4347,10 +4286,10 @@
         <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4401,31 +4340,31 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI22" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI22" t="s" s="2">
+      <c r="AJ22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4433,10 +4372,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4462,10 +4401,10 @@
         <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>165</v>
@@ -4509,7 +4448,7 @@
         <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
@@ -4518,7 +4457,7 @@
         <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4542,7 +4481,7 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4550,10 +4489,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4579,10 +4518,10 @@
         <v>200</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4594,7 +4533,7 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>76</v>
@@ -4688,16 +4627,16 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>90</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4748,7 +4687,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4757,10 +4696,10 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
@@ -4772,7 +4711,7 @@
         <v>76</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>232</v>
+        <v>133</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>76</v>
@@ -4780,21 +4719,21 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>76</v>
@@ -4803,20 +4742,18 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>135</v>
+        <v>248</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>76</v>
@@ -4853,54 +4790,54 @@
         <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4911,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>76</v>
@@ -4920,23 +4857,19 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4945,7 +4878,7 @@
         <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>76</v>
@@ -4984,13 +4917,13 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>76</v>
@@ -5002,24 +4935,24 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5030,7 +4963,7 @@
         <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>76</v>
@@ -5039,23 +4972,19 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
@@ -5103,13 +5032,13 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>76</v>
@@ -5124,21 +5053,21 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>262</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5146,7 +5075,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>88</v>
@@ -5161,13 +5090,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5218,10 +5147,10 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>88</v>
@@ -5236,24 +5165,24 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>273</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>133</v>
+        <v>274</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5261,7 +5190,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -5276,13 +5205,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5333,10 +5262,10 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -5351,24 +5280,24 @@
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5391,13 +5320,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5448,7 +5377,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5466,24 +5395,24 @@
         <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>283</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5506,13 +5435,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5539,13 +5468,11 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>289</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5563,7 +5490,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5584,10 +5511,10 @@
         <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>76</v>
@@ -5595,10 +5522,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5606,10 +5533,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
@@ -5621,13 +5548,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5678,13 +5605,13 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
@@ -5696,24 +5623,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5733,16 +5660,16 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>300</v>
+        <v>228</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5793,7 +5720,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>297</v>
+        <v>229</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5802,10 +5729,10 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
@@ -5814,10 +5741,10 @@
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>302</v>
+        <v>231</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5825,21 +5752,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>76</v>
@@ -5851,15 +5778,17 @@
         <v>76</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>304</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>305</v>
+        <v>233</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5908,19 +5837,19 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>303</v>
+        <v>236</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>76</v>
@@ -5932,7 +5861,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5940,14 +5869,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5960,22 +5889,26 @@
         <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
       </c>
@@ -5999,11 +5932,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="Y36" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z36" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -6021,7 +5956,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6033,7 +5968,7 @@
         <v>76</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -6045,7 +5980,7 @@
         <v>76</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>76</v>
@@ -6053,10 +5988,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6067,7 +6002,7 @@
         <v>77</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>76</v>
@@ -6076,16 +6011,16 @@
         <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6112,13 +6047,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -6136,13 +6071,13 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>76</v>
@@ -6154,24 +6089,24 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6179,7 +6114,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -6191,16 +6126,16 @@
         <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>255</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>228</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>229</v>
+        <v>316</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6251,31 +6186,31 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>230</v>
+        <v>313</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6283,14 +6218,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6309,17 +6244,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>234</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6344,13 +6277,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6368,7 +6301,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>237</v>
+        <v>319</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6380,66 +6313,64 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>232</v>
+        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
       </c>
@@ -6487,42 +6418,42 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>133</v>
+        <v>334</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6533,7 +6464,7 @@
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -6545,13 +6476,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>200</v>
+        <v>337</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6578,13 +6509,13 @@
         <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>330</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>76</v>
@@ -6602,13 +6533,13 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
@@ -6620,24 +6551,24 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>331</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>76</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6645,28 +6576,28 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6705,25 +6636,23 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>76</v>
@@ -6735,13 +6664,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6749,12 +6678,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
       </c>
@@ -6763,7 +6694,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6775,13 +6706,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6808,13 +6739,13 @@
         <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>343</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>344</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>76</v>
@@ -6832,7 +6763,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6847,27 +6778,27 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6875,7 +6806,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>88</v>
@@ -6890,17 +6821,15 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>349</v>
+        <v>90</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>350</v>
+        <v>227</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6910,7 +6839,7 @@
         <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>76</v>
@@ -6949,7 +6878,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>229</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6958,37 +6887,37 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>354</v>
+        <v>231</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>355</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7007,15 +6936,17 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>357</v>
+        <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>76</v>
@@ -7052,19 +6983,19 @@
         <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>356</v>
+        <v>236</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7076,7 +7007,7 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
@@ -7088,18 +7019,18 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>360</v>
+        <v>231</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>361</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7110,27 +7041,29 @@
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J46" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="I46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -7167,23 +7100,25 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
@@ -7195,28 +7130,26 @@
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>370</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>76</v>
       </c>
@@ -7234,16 +7167,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7294,13 +7227,13 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
@@ -7309,27 +7242,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7349,16 +7282,16 @@
         <v>76</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7370,7 +7303,7 @@
         <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>370</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
         <v>76</v>
@@ -7409,19 +7342,19 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7433,29 +7366,31 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -7467,17 +7402,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>135</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>234</v>
+        <v>380</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -7514,19 +7447,19 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>237</v>
+        <v>342</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7538,19 +7471,19 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7558,10 +7491,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7569,7 +7502,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -7581,20 +7514,18 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>379</v>
+        <v>90</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -7604,7 +7535,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>379</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7643,7 +7574,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>229</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7652,10 +7583,10 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -7667,29 +7598,29 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -7698,18 +7629,20 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7746,31 +7679,31 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
@@ -7782,18 +7715,18 @@
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7801,7 +7734,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -7816,15 +7749,17 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7873,10 +7808,10 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>88</v>
@@ -7897,7 +7832,7 @@
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>133</v>
@@ -7905,14 +7840,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7930,16 +7863,16 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7990,13 +7923,13 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>76</v>
@@ -8005,27 +7938,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8045,16 +7978,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>228</v>
+        <v>374</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>229</v>
+        <v>375</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8066,7 +7999,7 @@
         <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>399</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>76</v>
@@ -8105,19 +8038,19 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>230</v>
+        <v>376</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
@@ -8129,32 +8062,32 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>76</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>76</v>
@@ -8163,17 +8096,15 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>291</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>234</v>
+        <v>388</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -8210,31 +8141,31 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>237</v>
+        <v>387</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>141</v>
+        <v>390</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8246,7 +8177,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>232</v>
+        <v>391</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8254,10 +8185,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8277,20 +8208,18 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>379</v>
+        <v>299</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>380</v>
+        <v>227</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -8339,7 +8268,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>383</v>
+        <v>229</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8348,10 +8277,10 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -8363,29 +8292,29 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>384</v>
+        <v>231</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>76</v>
@@ -8394,18 +8323,20 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>298</v>
+        <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>387</v>
+        <v>233</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -8454,19 +8385,19 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>389</v>
+        <v>236</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8478,50 +8409,54 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>390</v>
+        <v>231</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>393</v>
+        <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>394</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
       </c>
@@ -8569,19 +8504,19 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>396</v>
+        <v>305</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8593,18 +8528,18 @@
         <v>76</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8612,13 +8547,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>76</v>
@@ -8627,13 +8562,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8684,7 +8619,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8693,10 +8628,10 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>410</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8708,7 +8643,7 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8716,10 +8651,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8742,15 +8677,17 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>228</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>76</v>
@@ -8775,13 +8712,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>404</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8799,7 +8736,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>230</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8808,10 +8745,10 @@
         <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>231</v>
+        <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8823,29 +8760,29 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>232</v>
+        <v>406</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>76</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>76</v>
@@ -8857,17 +8794,15 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>76</v>
@@ -8892,13 +8827,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>76</v>
+        <v>411</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>76</v>
+        <v>412</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8916,19 +8851,19 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>237</v>
+        <v>408</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>76</v>
@@ -8940,54 +8875,52 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>232</v>
+        <v>413</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>76</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>322</v>
+        <v>76</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>323</v>
+        <v>416</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>324</v>
+        <v>417</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
       </c>
@@ -9011,13 +8944,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>76</v>
+        <v>419</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>76</v>
+        <v>420</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -9035,19 +8968,19 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>325</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>76</v>
@@ -9059,18 +8992,18 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>133</v>
+        <v>421</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>76</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9078,7 +9011,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -9093,15 +9026,17 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>255</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>76</v>
@@ -9150,7 +9085,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9159,13 +9094,13 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9174,18 +9109,18 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>76</v>
+        <v>430</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9193,7 +9128,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -9208,16 +9143,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9243,31 +9178,29 @@
         <v>76</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>424</v>
+        <v>76</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>425</v>
+        <v>76</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9276,7 +9209,7 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>76</v>
+        <v>398</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>100</v>
@@ -9291,32 +9224,34 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>427</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>431</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>76</v>
@@ -9325,15 +9260,17 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>200</v>
+        <v>424</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -9358,32 +9295,32 @@
         <v>76</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>428</v>
-      </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9394,10 +9331,10 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>444</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>445</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9406,18 +9343,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>434</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9428,7 +9365,7 @@
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -9440,16 +9377,16 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>200</v>
+        <v>449</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9475,13 +9412,13 @@
         <v>76</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>439</v>
+        <v>76</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>440</v>
+        <v>76</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>76</v>
@@ -9499,13 +9436,13 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>435</v>
+        <v>448</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
@@ -9523,482 +9460,14 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="67" hidden="true">
-      <c r="A67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="68" hidden="true">
-      <c r="A68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="O68" s="2"/>
-      <c r="P68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="69" hidden="true">
-      <c r="A69" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="D69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="70" hidden="true">
-      <c r="A70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O70" s="2"/>
-      <c r="P70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AO70" t="s" s="2">
         <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO70">
+  <autoFilter ref="A1:AO66">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10008,7 +9477,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI69">
+  <conditionalFormatting sqref="A2:AI65">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T14:22:32+00:00</t>
+    <t>2024-06-17T15:02:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="455">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:49:27+00:00</t>
+    <t>2024-06-19T11:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,6 +469,9 @@
   <si>
     <t xml:space="preserve">Extension {http://ltsi.univ-rennes.fr/StructureDefinition/oncofair-ma-element-traceability}
 </t>
+  </si>
+  <si>
+    <t>OncoFAIRMAElementTraceability</t>
   </si>
   <si>
     <t>Extension created as part of OncoFAIR containing the batch and serial number of the administered component/administration element. 
@@ -2890,10 +2893,10 @@
         <v>144</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2976,13 +2979,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>76</v>
@@ -3004,13 +3007,13 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3093,13 +3096,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -3121,13 +3124,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3210,13 +3213,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -3238,13 +3241,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3327,14 +3330,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3356,16 +3359,16 @@
         <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -3414,7 +3417,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3446,10 +3449,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3472,16 +3475,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3531,7 +3534,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3549,13 +3552,13 @@
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>76</v>
@@ -3563,10 +3566,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3589,13 +3592,13 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3646,7 +3649,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3670,7 +3673,7 @@
         <v>76</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>76</v>
@@ -3678,10 +3681,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3704,16 +3707,16 @@
         <v>89</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3763,7 +3766,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3778,16 +3781,16 @@
         <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>76</v>
@@ -3795,10 +3798,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3824,13 +3827,13 @@
         <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3859,10 +3862,10 @@
         <v>112</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>76</v>
@@ -3880,7 +3883,7 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>88</v>
@@ -3898,24 +3901,24 @@
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3938,13 +3941,13 @@
         <v>76</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3971,13 +3974,13 @@
         <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>76</v>
@@ -3995,7 +3998,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -4013,24 +4016,24 @@
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4053,13 +4056,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4086,13 +4089,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -4110,7 +4113,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4134,7 +4137,7 @@
         <v>76</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>76</v>
@@ -4142,10 +4145,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4168,16 +4171,16 @@
         <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4207,7 +4210,7 @@
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -4225,7 +4228,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>88</v>
@@ -4240,27 +4243,27 @@
         <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4286,10 +4289,10 @@
         <v>90</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4340,7 +4343,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4349,7 +4352,7 @@
         <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -4364,7 +4367,7 @@
         <v>76</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>76</v>
@@ -4372,14 +4375,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4401,13 +4404,13 @@
         <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4448,7 +4451,7 @@
         <v>138</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
@@ -4457,7 +4460,7 @@
         <v>139</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4481,7 +4484,7 @@
         <v>76</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>76</v>
@@ -4489,10 +4492,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4515,13 +4518,13 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4533,7 +4536,7 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>76</v>
@@ -4572,7 +4575,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4604,10 +4607,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4630,13 +4633,13 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4687,7 +4690,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4719,10 +4722,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4745,13 +4748,13 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4802,7 +4805,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>88</v>
@@ -4820,24 +4823,24 @@
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4860,13 +4863,13 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4917,7 +4920,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4935,24 +4938,24 @@
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4975,13 +4978,13 @@
         <v>76</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5032,7 +5035,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5053,10 +5056,10 @@
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>76</v>
@@ -5064,10 +5067,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5090,13 +5093,13 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5147,7 +5150,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5165,24 +5168,24 @@
         <v>76</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5205,13 +5208,13 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5262,7 +5265,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5283,10 +5286,10 @@
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>76</v>
@@ -5294,10 +5297,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5320,13 +5323,13 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5377,7 +5380,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5409,10 +5412,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5435,13 +5438,13 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5468,11 +5471,11 @@
         <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>76</v>
@@ -5490,7 +5493,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5522,10 +5525,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5548,13 +5551,13 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5605,7 +5608,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5623,24 +5626,24 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5663,13 +5666,13 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5720,7 +5723,7 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5729,7 +5732,7 @@
         <v>88</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>76</v>
@@ -5744,7 +5747,7 @@
         <v>76</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>76</v>
@@ -5752,14 +5755,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5781,13 +5784,13 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5837,7 +5840,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5861,7 +5864,7 @@
         <v>76</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>76</v>
@@ -5869,14 +5872,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -5898,16 +5901,16 @@
         <v>135</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5956,7 +5959,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5988,10 +5991,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6014,13 +6017,13 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6047,13 +6050,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -6071,7 +6074,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6089,13 +6092,13 @@
         <v>76</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>76</v>
@@ -6103,10 +6106,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6129,13 +6132,13 @@
         <v>89</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6186,7 +6189,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6204,13 +6207,13 @@
         <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>76</v>
@@ -6218,10 +6221,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6244,13 +6247,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6277,13 +6280,13 @@
         <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>76</v>
@@ -6301,7 +6304,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6319,24 +6322,24 @@
         <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6359,16 +6362,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6418,7 +6421,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6436,24 +6439,24 @@
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6476,13 +6479,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6533,7 +6536,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6557,18 +6560,18 @@
         <v>76</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6591,13 +6594,13 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6636,7 +6639,7 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC42" s="2"/>
       <c r="AD42" t="s" s="2">
@@ -6646,7 +6649,7 @@
         <v>139</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6664,13 +6667,13 @@
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>76</v>
@@ -6678,13 +6681,13 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>76</v>
@@ -6706,13 +6709,13 @@
         <v>76</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6763,7 +6766,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6778,16 +6781,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>76</v>
@@ -6795,10 +6798,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6824,10 +6827,10 @@
         <v>90</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6839,7 +6842,7 @@
         <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>76</v>
@@ -6878,7 +6881,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6887,7 +6890,7 @@
         <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>76</v>
@@ -6902,7 +6905,7 @@
         <v>76</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>76</v>
@@ -6910,14 +6913,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6939,13 +6942,13 @@
         <v>135</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6986,7 +6989,7 @@
         <v>138</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>76</v>
@@ -6995,7 +6998,7 @@
         <v>139</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7019,7 +7022,7 @@
         <v>76</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>76</v>
@@ -7027,10 +7030,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7053,16 +7056,16 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7112,7 +7115,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7136,7 +7139,7 @@
         <v>76</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>133</v>
@@ -7144,10 +7147,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7170,13 +7173,13 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7227,7 +7230,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7251,7 +7254,7 @@
         <v>76</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>133</v>
@@ -7259,10 +7262,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7285,13 +7288,13 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7342,7 +7345,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7366,7 +7369,7 @@
         <v>76</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>133</v>
@@ -7374,13 +7377,13 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>76</v>
@@ -7402,13 +7405,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7459,7 +7462,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7474,16 +7477,16 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>76</v>
@@ -7491,10 +7494,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7520,10 +7523,10 @@
         <v>90</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7535,7 +7538,7 @@
         <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="T50" t="s" s="2">
         <v>76</v>
@@ -7574,7 +7577,7 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7583,7 +7586,7 @@
         <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7598,7 +7601,7 @@
         <v>76</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>76</v>
@@ -7606,14 +7609,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7635,13 +7638,13 @@
         <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7682,7 +7685,7 @@
         <v>138</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
@@ -7691,7 +7694,7 @@
         <v>139</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7715,7 +7718,7 @@
         <v>76</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>76</v>
@@ -7723,10 +7726,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7749,16 +7752,16 @@
         <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7808,7 +7811,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7832,7 +7835,7 @@
         <v>76</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>133</v>
@@ -7840,10 +7843,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7866,13 +7869,13 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7923,7 +7926,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7947,7 +7950,7 @@
         <v>76</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>133</v>
@@ -7955,10 +7958,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7981,13 +7984,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8038,7 +8041,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -8062,7 +8065,7 @@
         <v>76</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>133</v>
@@ -8070,10 +8073,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8096,13 +8099,13 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8153,7 +8156,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8165,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -8177,7 +8180,7 @@
         <v>76</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>76</v>
@@ -8185,10 +8188,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8211,13 +8214,13 @@
         <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8268,7 +8271,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8277,7 +8280,7 @@
         <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>76</v>
@@ -8292,7 +8295,7 @@
         <v>76</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>76</v>
@@ -8300,14 +8303,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8329,13 +8332,13 @@
         <v>135</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8385,7 +8388,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8409,7 +8412,7 @@
         <v>76</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>76</v>
@@ -8417,14 +8420,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8446,16 +8449,16 @@
         <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -8504,7 +8507,7 @@
         <v>76</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8536,10 +8539,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8562,13 +8565,13 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8619,7 +8622,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8628,7 +8631,7 @@
         <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>100</v>
@@ -8643,7 +8646,7 @@
         <v>76</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>76</v>
@@ -8651,10 +8654,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8677,16 +8680,16 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8712,13 +8715,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -8736,7 +8739,7 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8760,18 +8763,18 @@
         <v>76</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8794,13 +8797,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8827,13 +8830,13 @@
         <v>76</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>76</v>
@@ -8851,7 +8854,7 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -8875,18 +8878,18 @@
         <v>76</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8909,16 +8912,16 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8944,13 +8947,13 @@
         <v>76</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>76</v>
@@ -8968,7 +8971,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8992,18 +8995,18 @@
         <v>76</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9026,16 +9029,16 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9085,7 +9088,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
@@ -9094,13 +9097,13 @@
         <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>76</v>
@@ -9109,18 +9112,18 @@
         <v>76</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9143,16 +9146,16 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9190,17 +9193,17 @@
         <v>76</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AC64" s="2"/>
       <c r="AD64" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9209,7 +9212,7 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>100</v>
@@ -9224,21 +9227,21 @@
         <v>76</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>76</v>
@@ -9260,16 +9263,16 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9319,7 +9322,7 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9331,10 +9334,10 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -9343,18 +9346,18 @@
         <v>76</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9377,16 +9380,16 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9436,7 +9439,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9460,7 +9463,7 @@
         <v>76</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>76</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationadministration-component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
